--- a/Outputs/Fish/Trophic/FINAL_Trophic_density_year.xlsx
+++ b/Outputs/Fish/Trophic/FINAL_Trophic_density_year.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathonlocal\Desktop\Nature Foundation\CORENA Project\Reef_Monitoring\Outputs\Fish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathonlocal\Desktop\Nature Foundation\CORENA Project\Reef_Monitoring\Outputs\Fish\Trophic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD477CF-F80D-4101-A81F-2B2BE19725C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{146EAD68-77BA-411C-9DB6-68B1E306F88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Trophic_density_year" sheetId="1" r:id="rId1"/>
+    <sheet name="Trophic_biomass_year" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -22,106 +22,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t>1.085 ± 0.634</t>
-  </si>
-  <si>
-    <t>0.586 ± 0.445</t>
-  </si>
-  <si>
-    <t>0.997 ± 0.449</t>
-  </si>
-  <si>
-    <t>1.31 ± 0.701</t>
-  </si>
-  <si>
-    <t>1.228 ± 0.36</t>
-  </si>
-  <si>
-    <t>1.136 ± 0.457</t>
-  </si>
-  <si>
-    <t>0.662 ± 0.287</t>
-  </si>
-  <si>
-    <t>0.267 ± 0.175</t>
-  </si>
-  <si>
-    <t>0.285 ± 0.149</t>
-  </si>
-  <si>
-    <t>0.224 ± 0.109</t>
-  </si>
-  <si>
-    <t>0.192 ± 0.077</t>
-  </si>
-  <si>
-    <t>0.295 ± 0.127</t>
-  </si>
-  <si>
-    <t>0.327 ± 0.281</t>
-  </si>
-  <si>
-    <t>0.257 ± 0.251</t>
-  </si>
-  <si>
-    <t>1.787 ± 0.979</t>
-  </si>
-  <si>
-    <t>0.032 ± 0.028</t>
-  </si>
-  <si>
-    <t>0.041 ± 0.03</t>
-  </si>
-  <si>
-    <t>0.041 ± 0.024</t>
-  </si>
-  <si>
-    <t>0.084 ± 0.051</t>
-  </si>
-  <si>
-    <t>0.047 ± 0.034</t>
-  </si>
-  <si>
-    <t>0.282 ± 0.343</t>
-  </si>
-  <si>
-    <t>0.078 ± 0.049</t>
-  </si>
-  <si>
-    <t>0.253 ± 0.195</t>
-  </si>
-  <si>
-    <t>0.137 ± 0.112</t>
-  </si>
-  <si>
-    <t>0.189 ± 0.152</t>
-  </si>
-  <si>
-    <t>0.262 ± 0.079</t>
-  </si>
-  <si>
-    <t>0.103 ± 0.079</t>
-  </si>
-  <si>
-    <t>0.117 ± 0.159</t>
-  </si>
-  <si>
-    <t>Mean Herbivorous Density</t>
-  </si>
-  <si>
-    <t>Mean Invertivorous Density</t>
-  </si>
-  <si>
-    <t>Mean Omnivorous Density</t>
-  </si>
-  <si>
-    <t>Mean Piscivorous Density</t>
+    <t>3392.19 ± 1560.126</t>
+  </si>
+  <si>
+    <t>1747.304 ± 1637.539</t>
+  </si>
+  <si>
+    <t>1111.8 ± 460.08</t>
+  </si>
+  <si>
+    <t>2410.658 ± 951.678</t>
+  </si>
+  <si>
+    <t>3658.103 ± 1259.733</t>
+  </si>
+  <si>
+    <t>3471.869 ± 1891.75</t>
+  </si>
+  <si>
+    <t>2094.695 ± 972.845</t>
+  </si>
+  <si>
+    <t>1635.8 ± 1556.146</t>
+  </si>
+  <si>
+    <t>7891.51 ± 11659.941</t>
+  </si>
+  <si>
+    <t>1891.045 ± 864.673</t>
+  </si>
+  <si>
+    <t>1901.154 ± 873.206</t>
+  </si>
+  <si>
+    <t>4325.342 ± 1782.812</t>
+  </si>
+  <si>
+    <t>3691.131 ± 3486.113</t>
+  </si>
+  <si>
+    <t>2489.509 ± 2768.264</t>
+  </si>
+  <si>
+    <t>714.571 ± 694.782</t>
+  </si>
+  <si>
+    <t>589.892 ± 800.331</t>
+  </si>
+  <si>
+    <t>542.73 ± 601.052</t>
+  </si>
+  <si>
+    <t>1251.437 ± 2698.551</t>
+  </si>
+  <si>
+    <t>1487.893 ± 1433.369</t>
+  </si>
+  <si>
+    <t>3153.507 ± 4609.314</t>
+  </si>
+  <si>
+    <t>911.358 ± 1166.935</t>
+  </si>
+  <si>
+    <t>1770.984 ± 1489.743</t>
+  </si>
+  <si>
+    <t>13523.133 ± 14668.032</t>
+  </si>
+  <si>
+    <t>4769.637 ± 2774.08</t>
+  </si>
+  <si>
+    <t>27157.152 ± 40389.703</t>
+  </si>
+  <si>
+    <t>20598.199 ± 10965.665</t>
+  </si>
+  <si>
+    <t>6034.613 ± 5195.972</t>
+  </si>
+  <si>
+    <t>5502.301 ± 7290.287</t>
+  </si>
+  <si>
+    <t>Mean Herbivorous Biomass</t>
+  </si>
+  <si>
+    <t>Mean Invertivorous Biomass</t>
+  </si>
+  <si>
+    <t>Mean Omnivorous Biomass</t>
+  </si>
+  <si>
+    <t>Mean Piscivorous Biomass</t>
+  </si>
+  <si>
+    <t>2017 after Irma</t>
   </si>
   <si>
     <t>2017 before Irma</t>
-  </si>
-  <si>
-    <t>2017 after Irma</t>
   </si>
 </sst>
 </file>
@@ -446,12 +446,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -581,6 +581,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -628,10 +641,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -990,142 +1003,142 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>2016</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>2018</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>2019</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>2020</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>2023</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
